--- a/biology/Mycologie/Aphelaria_dendroides/Aphelaria_dendroides.xlsx
+++ b/biology/Mycologie/Aphelaria_dendroides/Aphelaria_dendroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphelaria dendroides est une espèce de champignons du genre Aphelaria des forêts tropicales et subtropicales de l'hémisphère sud.
 </t>
@@ -511,11 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aphelaria dendroides (Jungh. 1844) Corner 1950[1]
-Basionyme
-Clavaria dendroides Jungh. 1838[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphelaria dendroides (Jungh. 1844) Corner 1950
+</t>
         </is>
       </c>
     </row>
@@ -540,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forêt humide de l'hémisphère sud: Java, Nouvelle-Zélande.
-</t>
+          <t>Basionyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Clavaria dendroides Jungh. 1838</t>
         </is>
       </c>
     </row>
@@ -571,12 +589,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inconnue
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêt humide de l'hémisphère sud: Java, Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -602,10 +622,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inconnue
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aphelaria_dendroides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphelaria_dendroides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Clavaria lurida Kalchbr. 1882 (synonyme)
 Clavaria ornithopoda Massee 1901 (synonyme)
